--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.05035656249224</v>
+        <v>2.062226</v>
       </c>
       <c r="H2">
-        <v>2.05035656249224</v>
+        <v>4.124452</v>
       </c>
       <c r="I2">
-        <v>0.2515276787433247</v>
+        <v>0.2462863689641845</v>
       </c>
       <c r="J2">
-        <v>0.2515276787433247</v>
+        <v>0.1889627690219504</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.4780344832873</v>
+        <v>33.6320075</v>
       </c>
       <c r="N2">
-        <v>33.4780344832873</v>
+        <v>67.264015</v>
       </c>
       <c r="O2">
-        <v>0.4043414839346897</v>
+        <v>0.3908110491225105</v>
       </c>
       <c r="P2">
-        <v>0.4043414839346897</v>
+        <v>0.3281482467916435</v>
       </c>
       <c r="Q2">
-        <v>68.64190770214964</v>
+        <v>69.35680029869499</v>
       </c>
       <c r="R2">
-        <v>68.64190770214964</v>
+        <v>277.42720119478</v>
       </c>
       <c r="S2">
-        <v>0.1017030748737238</v>
+        <v>0.09625143423946667</v>
       </c>
       <c r="T2">
-        <v>0.1017030748737238</v>
+        <v>0.0620078013634473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.05035656249224</v>
+        <v>2.062226</v>
       </c>
       <c r="H3">
-        <v>2.05035656249224</v>
+        <v>4.124452</v>
       </c>
       <c r="I3">
-        <v>0.2515276787433247</v>
+        <v>0.2462863689641845</v>
       </c>
       <c r="J3">
-        <v>0.2515276787433247</v>
+        <v>0.1889627690219504</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.1766780937579</v>
+        <v>12.015213</v>
       </c>
       <c r="N3">
-        <v>11.1766780937579</v>
+        <v>36.045639</v>
       </c>
       <c r="O3">
-        <v>0.1349898426129662</v>
+        <v>0.1396193194224409</v>
       </c>
       <c r="P3">
-        <v>0.1349898426129662</v>
+        <v>0.1758490515669409</v>
       </c>
       <c r="Q3">
-        <v>22.91617527639977</v>
+        <v>24.778084644138</v>
       </c>
       <c r="R3">
-        <v>22.91617527639977</v>
+        <v>148.668507864828</v>
       </c>
       <c r="S3">
-        <v>0.03395368176636612</v>
+        <v>0.03438633521780361</v>
       </c>
       <c r="T3">
-        <v>0.03395368176636612</v>
+        <v>0.0332289237139729</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.05035656249224</v>
+        <v>2.062226</v>
       </c>
       <c r="H4">
-        <v>2.05035656249224</v>
+        <v>4.124452</v>
       </c>
       <c r="I4">
-        <v>0.2515276787433247</v>
+        <v>0.2462863689641845</v>
       </c>
       <c r="J4">
-        <v>0.2515276787433247</v>
+        <v>0.1889627690219504</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.8206143669879</v>
+        <v>0.122567</v>
       </c>
       <c r="N4">
-        <v>19.8206143669879</v>
+        <v>0.367701</v>
       </c>
       <c r="O4">
-        <v>0.2393896998238043</v>
+        <v>0.001424254495001488</v>
       </c>
       <c r="P4">
-        <v>0.2393896998238043</v>
+        <v>0.001793833426290924</v>
       </c>
       <c r="Q4">
-        <v>40.63932673998162</v>
+        <v>0.252760854142</v>
       </c>
       <c r="R4">
-        <v>40.63932673998162</v>
+        <v>1.516565124852</v>
       </c>
       <c r="S4">
-        <v>0.06021313551174278</v>
+        <v>0.0003507744680548347</v>
       </c>
       <c r="T4">
-        <v>0.06021313551174278</v>
+        <v>0.0003389677313960657</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.05035656249224</v>
+        <v>2.062226</v>
       </c>
       <c r="H5">
-        <v>2.05035656249224</v>
+        <v>4.124452</v>
       </c>
       <c r="I5">
-        <v>0.2515276787433247</v>
+        <v>0.2462863689641845</v>
       </c>
       <c r="J5">
-        <v>0.2515276787433247</v>
+        <v>0.1889627690219504</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>18.3211107538974</v>
+        <v>0.1323796666666667</v>
       </c>
       <c r="N5">
-        <v>18.3211107538974</v>
+        <v>0.397139</v>
       </c>
       <c r="O5">
-        <v>0.2212789736285398</v>
+        <v>0.001538279759615546</v>
       </c>
       <c r="P5">
-        <v>0.2212789736285398</v>
+        <v>0.001937447037358482</v>
       </c>
       <c r="Q5">
-        <v>37.56480966640069</v>
+        <v>0.2729967904713334</v>
       </c>
       <c r="R5">
-        <v>37.56480966640069</v>
+        <v>1.637980742828</v>
       </c>
       <c r="S5">
-        <v>0.05565778659149197</v>
+        <v>0.0003788573364468114</v>
       </c>
       <c r="T5">
-        <v>0.05565778659149197</v>
+        <v>0.000366105357012633</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.07162499175341</v>
+        <v>2.062226</v>
       </c>
       <c r="H6">
-        <v>1.07162499175341</v>
+        <v>4.124452</v>
       </c>
       <c r="I6">
-        <v>0.1314616938292116</v>
+        <v>0.2462863689641845</v>
       </c>
       <c r="J6">
-        <v>0.1314616938292116</v>
+        <v>0.1889627690219504</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.4780344832873</v>
+        <v>20.59650833333334</v>
       </c>
       <c r="N6">
-        <v>33.4780344832873</v>
+        <v>61.789525</v>
       </c>
       <c r="O6">
-        <v>0.4043414839346897</v>
+        <v>0.2393357883858265</v>
       </c>
       <c r="P6">
-        <v>0.4043414839346897</v>
+        <v>0.3014408863169769</v>
       </c>
       <c r="Q6">
-        <v>35.87589842707313</v>
+        <v>42.47465499421667</v>
       </c>
       <c r="R6">
-        <v>35.87589842707313</v>
+        <v>254.8479299653</v>
       </c>
       <c r="S6">
-        <v>0.05315541636347126</v>
+        <v>0.05894514228472567</v>
       </c>
       <c r="T6">
-        <v>0.05315541636347126</v>
+        <v>0.0569611045748869</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.07162499175341</v>
+        <v>2.062226</v>
       </c>
       <c r="H7">
-        <v>1.07162499175341</v>
+        <v>4.124452</v>
       </c>
       <c r="I7">
-        <v>0.1314616938292116</v>
+        <v>0.2462863689641845</v>
       </c>
       <c r="J7">
-        <v>0.1314616938292116</v>
+        <v>0.1889627690219504</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.1766780937579</v>
+        <v>19.558276</v>
       </c>
       <c r="N7">
-        <v>11.1766780937579</v>
+        <v>39.116552</v>
       </c>
       <c r="O7">
-        <v>0.1349898426129662</v>
+        <v>0.2272713088146052</v>
       </c>
       <c r="P7">
-        <v>0.1349898426129662</v>
+        <v>0.1908305348607893</v>
       </c>
       <c r="Q7">
-        <v>11.97720757005383</v>
+        <v>40.333585282376</v>
       </c>
       <c r="R7">
-        <v>11.97720757005383</v>
+        <v>161.334341129504</v>
       </c>
       <c r="S7">
-        <v>0.01774599335963923</v>
+        <v>0.05597382541768697</v>
       </c>
       <c r="T7">
-        <v>0.01774599335963923</v>
+        <v>0.03605986628123459</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.07162499175341</v>
+        <v>1.087808666666667</v>
       </c>
       <c r="H8">
-        <v>1.07162499175341</v>
+        <v>3.263426</v>
       </c>
       <c r="I8">
-        <v>0.1314616938292116</v>
+        <v>0.1299142027309831</v>
       </c>
       <c r="J8">
-        <v>0.1314616938292116</v>
+        <v>0.1495146539366266</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.8206143669879</v>
+        <v>33.6320075</v>
       </c>
       <c r="N8">
-        <v>19.8206143669879</v>
+        <v>67.264015</v>
       </c>
       <c r="O8">
-        <v>0.2393896998238043</v>
+        <v>0.3908110491225105</v>
       </c>
       <c r="P8">
-        <v>0.2393896998238043</v>
+        <v>0.3281482467916435</v>
       </c>
       <c r="Q8">
-        <v>21.24026570757093</v>
+        <v>36.58518923589833</v>
       </c>
       <c r="R8">
-        <v>21.24026570757093</v>
+        <v>219.51113541539</v>
       </c>
       <c r="S8">
-        <v>0.03147057542410384</v>
+        <v>0.05077190586521001</v>
       </c>
       <c r="T8">
-        <v>0.03147057542410384</v>
+        <v>0.04906297155896332</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.07162499175341</v>
+        <v>1.087808666666667</v>
       </c>
       <c r="H9">
-        <v>1.07162499175341</v>
+        <v>3.263426</v>
       </c>
       <c r="I9">
-        <v>0.1314616938292116</v>
+        <v>0.1299142027309831</v>
       </c>
       <c r="J9">
-        <v>0.1314616938292116</v>
+        <v>0.1495146539366266</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.3211107538974</v>
+        <v>12.015213</v>
       </c>
       <c r="N9">
-        <v>18.3211107538974</v>
+        <v>36.045639</v>
       </c>
       <c r="O9">
-        <v>0.2212789736285398</v>
+        <v>0.1396193194224409</v>
       </c>
       <c r="P9">
-        <v>0.2212789736285398</v>
+        <v>0.1758490515669409</v>
       </c>
       <c r="Q9">
-        <v>19.63336016055861</v>
+        <v>13.070252833246</v>
       </c>
       <c r="R9">
-        <v>19.63336016055861</v>
+        <v>117.632275499214</v>
       </c>
       <c r="S9">
-        <v>0.02908970868199729</v>
+        <v>0.01813853256860886</v>
       </c>
       <c r="T9">
-        <v>0.02908970868199729</v>
+        <v>0.02629201009011518</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.23210112972607</v>
+        <v>1.087808666666667</v>
       </c>
       <c r="H10">
-        <v>1.23210112972607</v>
+        <v>3.263426</v>
       </c>
       <c r="I10">
-        <v>0.1511481187254225</v>
+        <v>0.1299142027309831</v>
       </c>
       <c r="J10">
-        <v>0.1511481187254225</v>
+        <v>0.1495146539366266</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>33.4780344832873</v>
+        <v>0.122567</v>
       </c>
       <c r="N10">
-        <v>33.4780344832873</v>
+        <v>0.367701</v>
       </c>
       <c r="O10">
-        <v>0.4043414839346897</v>
+        <v>0.001424254495001488</v>
       </c>
       <c r="P10">
-        <v>0.4043414839346897</v>
+        <v>0.001793833426290924</v>
       </c>
       <c r="Q10">
-        <v>41.24832410786662</v>
+        <v>0.1333294448473333</v>
       </c>
       <c r="R10">
-        <v>41.24832410786662</v>
+        <v>1.199965003626</v>
       </c>
       <c r="S10">
-        <v>0.061115454619374</v>
+        <v>0.0001850308872041372</v>
       </c>
       <c r="T10">
-        <v>0.061115454619374</v>
+        <v>0.0002682043839518407</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.23210112972607</v>
+        <v>1.087808666666667</v>
       </c>
       <c r="H11">
-        <v>1.23210112972607</v>
+        <v>3.263426</v>
       </c>
       <c r="I11">
-        <v>0.1511481187254225</v>
+        <v>0.1299142027309831</v>
       </c>
       <c r="J11">
-        <v>0.1511481187254225</v>
+        <v>0.1495146539366266</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>11.1766780937579</v>
+        <v>0.1323796666666667</v>
       </c>
       <c r="N11">
-        <v>11.1766780937579</v>
+        <v>0.397139</v>
       </c>
       <c r="O11">
-        <v>0.1349898426129662</v>
+        <v>0.001538279759615546</v>
       </c>
       <c r="P11">
-        <v>0.1349898426129662</v>
+        <v>0.001937447037358482</v>
       </c>
       <c r="Q11">
-        <v>13.77079770590373</v>
+        <v>0.1440037486904444</v>
       </c>
       <c r="R11">
-        <v>13.77079770590373</v>
+        <v>1.296033738214</v>
       </c>
       <c r="S11">
-        <v>0.02040346075799071</v>
+        <v>0.0001998443885476619</v>
       </c>
       <c r="T11">
-        <v>0.02040346075799071</v>
+        <v>0.000289676723311196</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.23210112972607</v>
+        <v>1.087808666666667</v>
       </c>
       <c r="H12">
-        <v>1.23210112972607</v>
+        <v>3.263426</v>
       </c>
       <c r="I12">
-        <v>0.1511481187254225</v>
+        <v>0.1299142027309831</v>
       </c>
       <c r="J12">
-        <v>0.1511481187254225</v>
+        <v>0.1495146539366266</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.8206143669879</v>
+        <v>20.59650833333334</v>
       </c>
       <c r="N12">
-        <v>19.8206143669879</v>
+        <v>61.789525</v>
       </c>
       <c r="O12">
-        <v>0.2393896998238043</v>
+        <v>0.2393357883858265</v>
       </c>
       <c r="P12">
-        <v>0.2393896998238043</v>
+        <v>0.3014408863169769</v>
       </c>
       <c r="Q12">
-        <v>24.42100135343057</v>
+        <v>22.40506026807223</v>
       </c>
       <c r="R12">
-        <v>24.42100135343057</v>
+        <v>201.64554241265</v>
       </c>
       <c r="S12">
-        <v>0.03618330277061163</v>
+        <v>0.03109311813313594</v>
       </c>
       <c r="T12">
-        <v>0.03618330277061163</v>
+        <v>0.0450698298000328</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.23210112972607</v>
+        <v>1.087808666666667</v>
       </c>
       <c r="H13">
-        <v>1.23210112972607</v>
+        <v>3.263426</v>
       </c>
       <c r="I13">
-        <v>0.1511481187254225</v>
+        <v>0.1299142027309831</v>
       </c>
       <c r="J13">
-        <v>0.1511481187254225</v>
+        <v>0.1495146539366266</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.3211107538974</v>
+        <v>19.558276</v>
       </c>
       <c r="N13">
-        <v>18.3211107538974</v>
+        <v>39.116552</v>
       </c>
       <c r="O13">
-        <v>0.2212789736285398</v>
+        <v>0.2272713088146052</v>
       </c>
       <c r="P13">
-        <v>0.2212789736285398</v>
+        <v>0.1908305348607893</v>
       </c>
       <c r="Q13">
-        <v>22.57346125771344</v>
+        <v>21.27566213785867</v>
       </c>
       <c r="R13">
-        <v>22.57346125771344</v>
+        <v>127.653972827152</v>
       </c>
       <c r="S13">
-        <v>0.03344590057744617</v>
+        <v>0.02952577088827648</v>
       </c>
       <c r="T13">
-        <v>0.03344590057744617</v>
+        <v>0.02853196138025228</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.3613634884419</v>
+        <v>1.302230333333333</v>
       </c>
       <c r="H14">
-        <v>1.3613634884419</v>
+        <v>3.906691</v>
       </c>
       <c r="I14">
-        <v>0.1670053903977991</v>
+        <v>0.1555220331581924</v>
       </c>
       <c r="J14">
-        <v>0.1670053903977991</v>
+        <v>0.1789859959754975</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.4780344832873</v>
+        <v>33.6320075</v>
       </c>
       <c r="N14">
-        <v>33.4780344832873</v>
+        <v>67.264015</v>
       </c>
       <c r="O14">
-        <v>0.4043414839346897</v>
+        <v>0.3908110491225105</v>
       </c>
       <c r="P14">
-        <v>0.4043414839346897</v>
+        <v>0.3281482467916435</v>
       </c>
       <c r="Q14">
-        <v>45.57577381034622</v>
+        <v>43.79662033739417</v>
       </c>
       <c r="R14">
-        <v>45.57577381034622</v>
+        <v>262.779722024365</v>
       </c>
       <c r="S14">
-        <v>0.06752720737853828</v>
+        <v>0.06077972894021901</v>
       </c>
       <c r="T14">
-        <v>0.06752720737853828</v>
+        <v>0.05873394077961566</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.3613634884419</v>
+        <v>1.302230333333333</v>
       </c>
       <c r="H15">
-        <v>1.3613634884419</v>
+        <v>3.906691</v>
       </c>
       <c r="I15">
-        <v>0.1670053903977991</v>
+        <v>0.1555220331581924</v>
       </c>
       <c r="J15">
-        <v>0.1670053903977991</v>
+        <v>0.1789859959754975</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.1766780937579</v>
+        <v>12.015213</v>
       </c>
       <c r="N15">
-        <v>11.1766780937579</v>
+        <v>36.045639</v>
       </c>
       <c r="O15">
-        <v>0.1349898426129662</v>
+        <v>0.1396193194224409</v>
       </c>
       <c r="P15">
-        <v>0.1349898426129662</v>
+        <v>0.1758490515669409</v>
       </c>
       <c r="Q15">
-        <v>15.21552147891042</v>
+        <v>15.646574830061</v>
       </c>
       <c r="R15">
-        <v>15.21552147891042</v>
+        <v>140.819173470549</v>
       </c>
       <c r="S15">
-        <v>0.02254403136531588</v>
+        <v>0.02171388042474109</v>
       </c>
       <c r="T15">
-        <v>0.02254403136531588</v>
+        <v>0.03147451763605554</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.3613634884419</v>
+        <v>1.302230333333333</v>
       </c>
       <c r="H16">
-        <v>1.3613634884419</v>
+        <v>3.906691</v>
       </c>
       <c r="I16">
-        <v>0.1670053903977991</v>
+        <v>0.1555220331581924</v>
       </c>
       <c r="J16">
-        <v>0.1670053903977991</v>
+        <v>0.1789859959754975</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>19.8206143669879</v>
+        <v>0.122567</v>
       </c>
       <c r="N16">
-        <v>19.8206143669879</v>
+        <v>0.367701</v>
       </c>
       <c r="O16">
-        <v>0.2393896998238043</v>
+        <v>0.001424254495001488</v>
       </c>
       <c r="P16">
-        <v>0.2393896998238043</v>
+        <v>0.001793833426290924</v>
       </c>
       <c r="Q16">
-        <v>26.98306071770429</v>
+        <v>0.1596104652656667</v>
       </c>
       <c r="R16">
-        <v>26.98306071770429</v>
+        <v>1.436494187391</v>
       </c>
       <c r="S16">
-        <v>0.03997937027628638</v>
+        <v>0.0002215029547973258</v>
       </c>
       <c r="T16">
-        <v>0.03997937027628638</v>
+        <v>0.0003210710624188201</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.3613634884419</v>
+        <v>1.302230333333333</v>
       </c>
       <c r="H17">
-        <v>1.3613634884419</v>
+        <v>3.906691</v>
       </c>
       <c r="I17">
-        <v>0.1670053903977991</v>
+        <v>0.1555220331581924</v>
       </c>
       <c r="J17">
-        <v>0.1670053903977991</v>
+        <v>0.1789859959754975</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>18.3211107538974</v>
+        <v>0.1323796666666667</v>
       </c>
       <c r="N17">
-        <v>18.3211107538974</v>
+        <v>0.397139</v>
       </c>
       <c r="O17">
-        <v>0.2212789736285398</v>
+        <v>0.001538279759615546</v>
       </c>
       <c r="P17">
-        <v>0.2212789736285398</v>
+        <v>0.001937447037358482</v>
       </c>
       <c r="Q17">
-        <v>24.94169124805617</v>
+        <v>0.1723888174498889</v>
       </c>
       <c r="R17">
-        <v>24.94169124805617</v>
+        <v>1.551499357049</v>
       </c>
       <c r="S17">
-        <v>0.03695478137765858</v>
+        <v>0.0002392363957815051</v>
       </c>
       <c r="T17">
-        <v>0.03695478137765858</v>
+        <v>0.0003467758876313848</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.20536030271884</v>
+        <v>1.302230333333333</v>
       </c>
       <c r="H18">
-        <v>1.20536030271884</v>
+        <v>3.906691</v>
       </c>
       <c r="I18">
-        <v>0.1478676853277164</v>
+        <v>0.1555220331581924</v>
       </c>
       <c r="J18">
-        <v>0.1478676853277164</v>
+        <v>0.1789859959754975</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.4780344832873</v>
+        <v>20.59650833333334</v>
       </c>
       <c r="N18">
-        <v>33.4780344832873</v>
+        <v>61.789525</v>
       </c>
       <c r="O18">
-        <v>0.4043414839346897</v>
+        <v>0.2393357883858265</v>
       </c>
       <c r="P18">
-        <v>0.4043414839346897</v>
+        <v>0.3014408863169769</v>
       </c>
       <c r="Q18">
-        <v>40.35309377920694</v>
+        <v>26.82139791241945</v>
       </c>
       <c r="R18">
-        <v>40.35309377920694</v>
+        <v>241.3925812117751</v>
       </c>
       <c r="S18">
-        <v>0.05978903931139661</v>
+        <v>0.03722198841728262</v>
       </c>
       <c r="T18">
-        <v>0.05978903931139661</v>
+        <v>0.05395369726518081</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.20536030271884</v>
+        <v>1.302230333333333</v>
       </c>
       <c r="H19">
-        <v>1.20536030271884</v>
+        <v>3.906691</v>
       </c>
       <c r="I19">
-        <v>0.1478676853277164</v>
+        <v>0.1555220331581924</v>
       </c>
       <c r="J19">
-        <v>0.1478676853277164</v>
+        <v>0.1789859959754975</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.1766780937579</v>
+        <v>19.558276</v>
       </c>
       <c r="N19">
-        <v>11.1766780937579</v>
+        <v>39.116552</v>
       </c>
       <c r="O19">
-        <v>0.1349898426129662</v>
+        <v>0.2272713088146052</v>
       </c>
       <c r="P19">
-        <v>0.1349898426129662</v>
+        <v>0.1908305348607893</v>
       </c>
       <c r="Q19">
-        <v>13.47192409048305</v>
+        <v>25.46938027490533</v>
       </c>
       <c r="R19">
-        <v>13.47192409048305</v>
+        <v>152.816281649432</v>
       </c>
       <c r="S19">
-        <v>0.01996063556993205</v>
+        <v>0.0353456960253708</v>
       </c>
       <c r="T19">
-        <v>0.01996063556993205</v>
+        <v>0.03415599334459526</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.20536030271884</v>
+        <v>1.411814333333333</v>
       </c>
       <c r="H20">
-        <v>1.20536030271884</v>
+        <v>4.235443</v>
       </c>
       <c r="I20">
-        <v>0.1478676853277164</v>
+        <v>0.1686093695881332</v>
       </c>
       <c r="J20">
-        <v>0.1478676853277164</v>
+        <v>0.1940478486147097</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.8206143669879</v>
+        <v>33.6320075</v>
       </c>
       <c r="N20">
-        <v>19.8206143669879</v>
+        <v>67.264015</v>
       </c>
       <c r="O20">
-        <v>0.2393896998238043</v>
+        <v>0.3908110491225105</v>
       </c>
       <c r="P20">
-        <v>0.2393896998238043</v>
+        <v>0.3281482467916435</v>
       </c>
       <c r="Q20">
-        <v>23.89098173346592</v>
+        <v>47.48215024727416</v>
       </c>
       <c r="R20">
-        <v>23.89098173346592</v>
+        <v>284.892901483645</v>
       </c>
       <c r="S20">
-        <v>0.0353980008042428</v>
+        <v>0.06589440462062345</v>
       </c>
       <c r="T20">
-        <v>0.0353980008042428</v>
+        <v>0.06367646131660724</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.20536030271884</v>
+        <v>1.411814333333333</v>
       </c>
       <c r="H21">
-        <v>1.20536030271884</v>
+        <v>4.235443</v>
       </c>
       <c r="I21">
-        <v>0.1478676853277164</v>
+        <v>0.1686093695881332</v>
       </c>
       <c r="J21">
-        <v>0.1478676853277164</v>
+        <v>0.1940478486147097</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.3211107538974</v>
+        <v>12.015213</v>
       </c>
       <c r="N21">
-        <v>18.3211107538974</v>
+        <v>36.045639</v>
       </c>
       <c r="O21">
-        <v>0.2212789736285398</v>
+        <v>0.1396193194224409</v>
       </c>
       <c r="P21">
-        <v>0.2212789736285398</v>
+        <v>0.1758490515669409</v>
       </c>
       <c r="Q21">
-        <v>22.08353960446317</v>
+        <v>16.963249931453</v>
       </c>
       <c r="R21">
-        <v>22.08353960446317</v>
+        <v>152.669249383077</v>
       </c>
       <c r="S21">
-        <v>0.03272000964214498</v>
+        <v>0.02354112543014195</v>
       </c>
       <c r="T21">
-        <v>0.03272000964214498</v>
+        <v>0.03412313013750204</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.23080758474426</v>
+        <v>1.411814333333333</v>
       </c>
       <c r="H22">
-        <v>1.23080758474426</v>
+        <v>4.235443</v>
       </c>
       <c r="I22">
-        <v>0.1509894329765256</v>
+        <v>0.1686093695881332</v>
       </c>
       <c r="J22">
-        <v>0.1509894329765256</v>
+        <v>0.1940478486147097</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>33.4780344832873</v>
+        <v>0.122567</v>
       </c>
       <c r="N22">
-        <v>33.4780344832873</v>
+        <v>0.367701</v>
       </c>
       <c r="O22">
-        <v>0.4043414839346897</v>
+        <v>0.001424254495001488</v>
       </c>
       <c r="P22">
-        <v>0.4043414839346897</v>
+        <v>0.001793833426290924</v>
       </c>
       <c r="Q22">
-        <v>41.2050187643599</v>
+        <v>0.1730418473936667</v>
       </c>
       <c r="R22">
-        <v>41.2050187643599</v>
+        <v>1.557376626543</v>
       </c>
       <c r="S22">
-        <v>0.06105129138818574</v>
+        <v>0.0002401426525352658</v>
       </c>
       <c r="T22">
-        <v>0.06105129138818574</v>
+        <v>0.0003480895171449072</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.23080758474426</v>
+        <v>1.411814333333333</v>
       </c>
       <c r="H23">
-        <v>1.23080758474426</v>
+        <v>4.235443</v>
       </c>
       <c r="I23">
-        <v>0.1509894329765256</v>
+        <v>0.1686093695881332</v>
       </c>
       <c r="J23">
-        <v>0.1509894329765256</v>
+        <v>0.1940478486147097</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>11.1766780937579</v>
+        <v>0.1323796666666667</v>
       </c>
       <c r="N23">
-        <v>11.1766780937579</v>
+        <v>0.397139</v>
       </c>
       <c r="O23">
-        <v>0.1349898426129662</v>
+        <v>0.001538279759615546</v>
       </c>
       <c r="P23">
-        <v>0.1349898426129662</v>
+        <v>0.001937447037358482</v>
       </c>
       <c r="Q23">
-        <v>13.75634017004224</v>
+        <v>0.1868955108418889</v>
       </c>
       <c r="R23">
-        <v>13.75634017004224</v>
+        <v>1.682059597577</v>
       </c>
       <c r="S23">
-        <v>0.0203820397937222</v>
+        <v>0.0002593683805189623</v>
       </c>
       <c r="T23">
-        <v>0.0203820397937222</v>
+        <v>0.0003759574294043566</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.23080758474426</v>
+        <v>1.411814333333333</v>
       </c>
       <c r="H24">
-        <v>1.23080758474426</v>
+        <v>4.235443</v>
       </c>
       <c r="I24">
-        <v>0.1509894329765256</v>
+        <v>0.1686093695881332</v>
       </c>
       <c r="J24">
-        <v>0.1509894329765256</v>
+        <v>0.1940478486147097</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.8206143669879</v>
+        <v>20.59650833333334</v>
       </c>
       <c r="N24">
-        <v>19.8206143669879</v>
+        <v>61.789525</v>
       </c>
       <c r="O24">
-        <v>0.2393896998238043</v>
+        <v>0.2393357883858265</v>
       </c>
       <c r="P24">
-        <v>0.2393896998238043</v>
+        <v>0.3014408863169769</v>
       </c>
       <c r="Q24">
-        <v>24.39536249717976</v>
+        <v>29.07844568161945</v>
       </c>
       <c r="R24">
-        <v>24.39536249717976</v>
+        <v>261.706011134575</v>
       </c>
       <c r="S24">
-        <v>0.03614531503681689</v>
+        <v>0.04035425639961306</v>
       </c>
       <c r="T24">
-        <v>0.03614531503681689</v>
+        <v>0.05849395547432065</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.23080758474426</v>
+        <v>1.411814333333333</v>
       </c>
       <c r="H25">
-        <v>1.23080758474426</v>
+        <v>4.235443</v>
       </c>
       <c r="I25">
-        <v>0.1509894329765256</v>
+        <v>0.1686093695881332</v>
       </c>
       <c r="J25">
-        <v>0.1509894329765256</v>
+        <v>0.1940478486147097</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>18.3211107538974</v>
+        <v>19.558276</v>
       </c>
       <c r="N25">
-        <v>18.3211107538974</v>
+        <v>39.116552</v>
       </c>
       <c r="O25">
-        <v>0.2212789736285398</v>
+        <v>0.2272713088146052</v>
       </c>
       <c r="P25">
-        <v>0.2212789736285398</v>
+        <v>0.1908305348607893</v>
       </c>
       <c r="Q25">
-        <v>22.54976207683655</v>
+        <v>27.61265439208933</v>
       </c>
       <c r="R25">
-        <v>22.54976207683655</v>
+        <v>165.675926352536</v>
       </c>
       <c r="S25">
-        <v>0.03341078675780079</v>
+        <v>0.03832007210470052</v>
       </c>
       <c r="T25">
-        <v>0.03341078675780079</v>
+        <v>0.03703025473973053</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.278373333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.83512</v>
+      </c>
+      <c r="I26">
+        <v>0.1526728527558608</v>
+      </c>
+      <c r="J26">
+        <v>0.175706953246507</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>33.6320075</v>
+      </c>
+      <c r="N26">
+        <v>67.264015</v>
+      </c>
+      <c r="O26">
+        <v>0.3908110491225105</v>
+      </c>
+      <c r="P26">
+        <v>0.3281482467916435</v>
+      </c>
+      <c r="Q26">
+        <v>42.99426153446667</v>
+      </c>
+      <c r="R26">
+        <v>257.9655692068</v>
+      </c>
+      <c r="S26">
+        <v>0.05966623775804453</v>
+      </c>
+      <c r="T26">
+        <v>0.05765792865694256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.278373333333333</v>
+      </c>
+      <c r="H27">
+        <v>3.83512</v>
+      </c>
+      <c r="I27">
+        <v>0.1526728527558608</v>
+      </c>
+      <c r="J27">
+        <v>0.175706953246507</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>12.015213</v>
+      </c>
+      <c r="N27">
+        <v>36.045639</v>
+      </c>
+      <c r="O27">
+        <v>0.1396193194224409</v>
+      </c>
+      <c r="P27">
+        <v>0.1758490515669409</v>
+      </c>
+      <c r="Q27">
+        <v>15.35992789352</v>
+      </c>
+      <c r="R27">
+        <v>138.23935104168</v>
+      </c>
+      <c r="S27">
+        <v>0.02131607979605581</v>
+      </c>
+      <c r="T27">
+        <v>0.0308979010821151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.278373333333333</v>
+      </c>
+      <c r="H28">
+        <v>3.83512</v>
+      </c>
+      <c r="I28">
+        <v>0.1526728527558608</v>
+      </c>
+      <c r="J28">
+        <v>0.175706953246507</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.122567</v>
+      </c>
+      <c r="N28">
+        <v>0.367701</v>
+      </c>
+      <c r="O28">
+        <v>0.001424254495001488</v>
+      </c>
+      <c r="P28">
+        <v>0.001793833426290924</v>
+      </c>
+      <c r="Q28">
+        <v>0.1566863843466667</v>
+      </c>
+      <c r="R28">
+        <v>1.41017745912</v>
+      </c>
+      <c r="S28">
+        <v>0.000217444996802235</v>
+      </c>
+      <c r="T28">
+        <v>0.0003151890059653209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.278373333333333</v>
+      </c>
+      <c r="H29">
+        <v>3.83512</v>
+      </c>
+      <c r="I29">
+        <v>0.1526728527558608</v>
+      </c>
+      <c r="J29">
+        <v>0.175706953246507</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.1323796666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.397139</v>
+      </c>
+      <c r="O29">
+        <v>0.001538279759615546</v>
+      </c>
+      <c r="P29">
+        <v>0.001937447037358482</v>
+      </c>
+      <c r="Q29">
+        <v>0.1692306357422222</v>
+      </c>
+      <c r="R29">
+        <v>1.52307572168</v>
+      </c>
+      <c r="S29">
+        <v>0.0002348535592371052</v>
+      </c>
+      <c r="T29">
+        <v>0.0003404229160107304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.278373333333333</v>
+      </c>
+      <c r="H30">
+        <v>3.83512</v>
+      </c>
+      <c r="I30">
+        <v>0.1526728527558608</v>
+      </c>
+      <c r="J30">
+        <v>0.175706953246507</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>20.59650833333334</v>
+      </c>
+      <c r="N30">
+        <v>61.789525</v>
+      </c>
+      <c r="O30">
+        <v>0.2393357883858265</v>
+      </c>
+      <c r="P30">
+        <v>0.3014408863169769</v>
+      </c>
+      <c r="Q30">
+        <v>26.33002701311112</v>
+      </c>
+      <c r="R30">
+        <v>236.970243118</v>
+      </c>
+      <c r="S30">
+        <v>0.03654007757943716</v>
+      </c>
+      <c r="T30">
+        <v>0.0529652597186827</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.278373333333333</v>
+      </c>
+      <c r="H31">
+        <v>3.83512</v>
+      </c>
+      <c r="I31">
+        <v>0.1526728527558608</v>
+      </c>
+      <c r="J31">
+        <v>0.175706953246507</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>19.558276</v>
+      </c>
+      <c r="N31">
+        <v>39.116552</v>
+      </c>
+      <c r="O31">
+        <v>0.2272713088146052</v>
+      </c>
+      <c r="P31">
+        <v>0.1908305348607893</v>
+      </c>
+      <c r="Q31">
+        <v>25.00277848437333</v>
+      </c>
+      <c r="R31">
+        <v>150.01667090624</v>
+      </c>
+      <c r="S31">
+        <v>0.03469815906628398</v>
+      </c>
+      <c r="T31">
+        <v>0.03353025186679064</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.2308325</v>
+      </c>
+      <c r="H32">
+        <v>2.461665</v>
+      </c>
+      <c r="I32">
+        <v>0.1469951728026461</v>
+      </c>
+      <c r="J32">
+        <v>0.1127817792047088</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>33.6320075</v>
+      </c>
+      <c r="N32">
+        <v>67.264015</v>
+      </c>
+      <c r="O32">
+        <v>0.3908110491225105</v>
+      </c>
+      <c r="P32">
+        <v>0.3281482467916435</v>
+      </c>
+      <c r="Q32">
+        <v>41.39536787124375</v>
+      </c>
+      <c r="R32">
+        <v>165.581471484975</v>
+      </c>
+      <c r="S32">
+        <v>0.05744733769894685</v>
+      </c>
+      <c r="T32">
+        <v>0.03700914311606743</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.2308325</v>
+      </c>
+      <c r="H33">
+        <v>2.461665</v>
+      </c>
+      <c r="I33">
+        <v>0.1469951728026461</v>
+      </c>
+      <c r="J33">
+        <v>0.1127817792047088</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>12.015213</v>
+      </c>
+      <c r="N33">
+        <v>36.045639</v>
+      </c>
+      <c r="O33">
+        <v>0.1396193194224409</v>
+      </c>
+      <c r="P33">
+        <v>0.1758490515669409</v>
+      </c>
+      <c r="Q33">
+        <v>14.7887146548225</v>
+      </c>
+      <c r="R33">
+        <v>88.73228792893501</v>
+      </c>
+      <c r="S33">
+        <v>0.02052336598508954</v>
+      </c>
+      <c r="T33">
+        <v>0.01983256890718018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.2308325</v>
+      </c>
+      <c r="H34">
+        <v>2.461665</v>
+      </c>
+      <c r="I34">
+        <v>0.1469951728026461</v>
+      </c>
+      <c r="J34">
+        <v>0.1127817792047088</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.122567</v>
+      </c>
+      <c r="N34">
+        <v>0.367701</v>
+      </c>
+      <c r="O34">
+        <v>0.001424254495001488</v>
+      </c>
+      <c r="P34">
+        <v>0.001793833426290924</v>
+      </c>
+      <c r="Q34">
+        <v>0.1508594470275</v>
+      </c>
+      <c r="R34">
+        <v>0.905156682165</v>
+      </c>
+      <c r="S34">
+        <v>0.0002093585356076892</v>
+      </c>
+      <c r="T34">
+        <v>0.0002023117254139692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.2308325</v>
+      </c>
+      <c r="H35">
+        <v>2.461665</v>
+      </c>
+      <c r="I35">
+        <v>0.1469951728026461</v>
+      </c>
+      <c r="J35">
+        <v>0.1127817792047088</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.1323796666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.397139</v>
+      </c>
+      <c r="O35">
+        <v>0.001538279759615546</v>
+      </c>
+      <c r="P35">
+        <v>0.001937447037358482</v>
+      </c>
+      <c r="Q35">
+        <v>0.1629371960725</v>
+      </c>
+      <c r="R35">
+        <v>0.9776231764350001</v>
+      </c>
+      <c r="S35">
+        <v>0.0002261196990835001</v>
+      </c>
+      <c r="T35">
+        <v>0.0002185087239881815</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.2308325</v>
+      </c>
+      <c r="H36">
+        <v>2.461665</v>
+      </c>
+      <c r="I36">
+        <v>0.1469951728026461</v>
+      </c>
+      <c r="J36">
+        <v>0.1127817792047088</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>20.59650833333334</v>
+      </c>
+      <c r="N36">
+        <v>61.789525</v>
+      </c>
+      <c r="O36">
+        <v>0.2393357883858265</v>
+      </c>
+      <c r="P36">
+        <v>0.3014408863169769</v>
+      </c>
+      <c r="Q36">
+        <v>25.3508518431875</v>
+      </c>
+      <c r="R36">
+        <v>152.105111059125</v>
+      </c>
+      <c r="S36">
+        <v>0.03518120557163212</v>
+      </c>
+      <c r="T36">
+        <v>0.033997039483873</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.2308325</v>
+      </c>
+      <c r="H37">
+        <v>2.461665</v>
+      </c>
+      <c r="I37">
+        <v>0.1469951728026461</v>
+      </c>
+      <c r="J37">
+        <v>0.1127817792047088</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>19.558276</v>
+      </c>
+      <c r="N37">
+        <v>39.116552</v>
+      </c>
+      <c r="O37">
+        <v>0.2272713088146052</v>
+      </c>
+      <c r="P37">
+        <v>0.1908305348607893</v>
+      </c>
+      <c r="Q37">
+        <v>24.07296174477</v>
+      </c>
+      <c r="R37">
+        <v>96.29184697907999</v>
+      </c>
+      <c r="S37">
+        <v>0.03340778531228644</v>
+      </c>
+      <c r="T37">
+        <v>0.02152220724818603</v>
       </c>
     </row>
   </sheetData>
